--- a/Gila_Breath_Camp/Documents/UI.xlsx
+++ b/Gila_Breath_Camp/Documents/UI.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginScreen" sheetId="1" r:id="rId1"/>
     <sheet name="RegistrationClerkScreen" sheetId="2" r:id="rId2"/>
-    <sheet name="RCFunctions" sheetId="4" r:id="rId3"/>
-    <sheet name="CustomerRegistration" sheetId="5" r:id="rId4"/>
-    <sheet name="RegisteredCustomers" sheetId="3" r:id="rId5"/>
-    <sheet name="CheckIn" sheetId="7" r:id="rId6"/>
-    <sheet name="Separate Questions" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="RCFunctions" sheetId="4" r:id="rId4"/>
+    <sheet name="CustomerRegistration" sheetId="5" r:id="rId5"/>
+    <sheet name="RegisteredCustomers" sheetId="3" r:id="rId6"/>
+    <sheet name="CheckIn" sheetId="7" r:id="rId7"/>
+    <sheet name="Separate Questions" sheetId="8" r:id="rId8"/>
+    <sheet name="CustomerPriorities" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>The purpose to add this screen:</t>
   </si>
@@ -168,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,7 +530,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -590,20 +598,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Group 3"/>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="127000" y="381000"/>
-          <a:ext cx="4684183" cy="2413000"/>
+          <a:ext cx="4150783" cy="2413000"/>
           <a:chOff x="127000" y="381000"/>
           <a:chExt cx="4684183" cy="2413000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Rectangle 1"/>
+          <xdr:cNvPr id="2" name="Rectangle 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -700,7 +720,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectangle 2"/>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -749,7 +775,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 4"/>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -798,7 +830,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 6"/>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -850,7 +888,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -899,7 +943,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Isosceles Triangle 12"/>
+          <xdr:cNvPr id="13" name="Isosceles Triangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -967,20 +1017,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Group 3"/>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="285750" y="219075"/>
-          <a:ext cx="4699000" cy="2413000"/>
+          <a:ext cx="4165600" cy="2413000"/>
           <a:chOff x="285750" y="219075"/>
           <a:chExt cx="4699000" cy="2413000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Rectangle 1"/>
+          <xdr:cNvPr id="2" name="Rectangle 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1053,7 +1115,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectangle 2"/>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1114,7 +1182,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 4"/>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1175,7 +1249,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 5"/>
+          <xdr:cNvPr id="6" name="Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1248,7 +1328,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1336,7 +1422,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1403,7 +1495,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1476,7 +1574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1554,7 +1658,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1890,7 +2000,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1954,7 +2070,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2018,7 +2140,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2082,7 +2210,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2146,7 +2280,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2538,7 +2678,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2602,7 +2748,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2666,7 +2818,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2730,7 +2888,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2794,7 +2958,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2858,7 +3028,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="5-Point Star 17"/>
+        <xdr:cNvPr id="18" name="5-Point Star 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2929,7 +3105,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="5-Point Star 18"/>
+        <xdr:cNvPr id="19" name="5-Point Star 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3000,7 +3182,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="5-Point Star 20"/>
+        <xdr:cNvPr id="21" name="5-Point Star 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3071,7 +3259,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 30"/>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3138,7 +3332,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 31"/>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3202,7 +3402,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3266,7 +3472,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="5-Point Star 22"/>
+        <xdr:cNvPr id="23" name="5-Point Star 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3337,7 +3549,13 @@
     <xdr:ext cx="4410074" cy="2333625"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Frame 4"/>
+        <xdr:cNvPr id="5" name="Frame 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3401,7 +3619,13 @@
     <xdr:ext cx="7820023" cy="2362199"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Frame 1"/>
+        <xdr:cNvPr id="2" name="Frame 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3465,7 +3689,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="7" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -3517,7 +3747,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3530,7 +3766,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 6"/>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3643,7 +3885,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Oval 7"/>
+          <xdr:cNvPr id="8" name="Oval 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3687,7 +3935,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Oval 8"/>
+          <xdr:cNvPr id="9" name="Oval 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3731,7 +3985,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Oval 9"/>
+          <xdr:cNvPr id="10" name="Oval 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3775,7 +4035,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Oval 10"/>
+          <xdr:cNvPr id="11" name="Oval 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3819,7 +4085,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Oval 11"/>
+          <xdr:cNvPr id="12" name="Oval 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3863,7 +4135,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Oval 12"/>
+          <xdr:cNvPr id="13" name="Oval 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3906,6 +4184,1902 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4CE586-A652-4274-9A99-5A7EBFCDF545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="285749"/>
+          <a:ext cx="3400425" cy="4624918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>    Application No :     1   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>         Camper Information :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>               First Name :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Last Name :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>               Age:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>               Sex:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>               Address:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>                   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>372534</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>192617</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96309</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B88CCD8-E77F-49EC-BD80-5FC1C782140C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2201334" y="1381124"/>
+          <a:ext cx="1648883" cy="239185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>382059</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202142</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE1AA85-ED7B-435E-A686-F6415532AA4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2210859" y="1722966"/>
+          <a:ext cx="1648883" cy="239185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB2B392-1C41-4458-9FA5-A7CBB724459B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="2084917"/>
+          <a:ext cx="1648883" cy="239185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>391583</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB09A8F-A435-4CEA-A725-02F266FEBB88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2220383" y="2782372"/>
+          <a:ext cx="1648883" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563034</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA5A275-F9AC-4524-A570-A2E4CDA011F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4220634" y="285750"/>
+          <a:ext cx="3238500" cy="4624916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>                           </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>      Parent/Gaurdian Information :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>            First Name :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Last Name :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>            Address :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>             Contact :               </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>             Emergency</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>             Contact:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>              Payment :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410634</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96310</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1445CB-81BC-4181-83FA-62301FEC6244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467351" y="1381125"/>
+          <a:ext cx="1648883" cy="239185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410633</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79547C08-F510-4981-B984-62082C7CD647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="1743075"/>
+          <a:ext cx="1648883" cy="239185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410633</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211E14BA-28EB-41F1-B37B-8E3AD3959810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="2114550"/>
+          <a:ext cx="1648883" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>401108</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>172510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AA8E32-8C69-4762-BE28-621637AA8CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="2981325"/>
+          <a:ext cx="1648883" cy="239185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410633</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DED36AD-1371-46C1-A595-3EB863C0722B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="3362325"/>
+          <a:ext cx="1648883" cy="239185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="5-Point Star 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B74FF1-B71E-4933-8B85-C24627B69BE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1828800"/>
+          <a:ext cx="28575" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="5-Point Star 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52D02E5-4921-423A-BDEF-9F7A8A21FC20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1476375"/>
+          <a:ext cx="28575" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="5-Point Star 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FC067F-83CA-406E-8641-103D409182E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="2200275"/>
+          <a:ext cx="38100" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2F5621-AB5B-4C1D-B18F-C0DE4B8BA58E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486401" y="4238625"/>
+          <a:ext cx="752474" cy="264584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="34925">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Centaur" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Register</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>404283</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534E87B1-21F4-44F8-8CB8-234F59B37485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5461000" y="3827992"/>
+          <a:ext cx="1648883" cy="239185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>378884</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198967</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D117412B-50B6-49AF-B754-95E0397772FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2207684" y="2438401"/>
+          <a:ext cx="1648883" cy="239185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>664633</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>51848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35983</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="5-Point Star 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409CA0AC-668D-43EA-87C1-EF2DE1C80BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1217083" y="2528348"/>
+          <a:ext cx="38100" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4239,7 +6413,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="12:13" x14ac:dyDescent="0.25">
@@ -4313,6 +6487,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
@@ -4324,7 +6510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O29"/>
   <sheetViews>
@@ -4373,21 +6559,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4534,7 +6720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L17"/>
   <sheetViews>
@@ -4544,12 +6730,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4703,7 +6889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -4726,4 +6912,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A20:O29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V9" sqref="L1:V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="14"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gila_Breath_Camp/Documents/UI.xlsx
+++ b/Gila_Breath_Camp/Documents/UI.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="LoginScreen" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="CheckIn" sheetId="7" r:id="rId7"/>
     <sheet name="Separate Questions" sheetId="8" r:id="rId8"/>
     <sheet name="CustomerPriorities" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>The purpose to add this screen:</t>
   </si>
@@ -165,6 +166,34 @@
   </si>
   <si>
     <t>virtual thing which actuallly doesn’t need coding</t>
+  </si>
+  <si>
+    <t>Appl No</t>
+  </si>
+  <si>
+    <t>Applicant Name</t>
+  </si>
+  <si>
+    <t>Applicant Name 
+(Together with)</t>
+  </si>
+  <si>
+    <t>Guardian SSN
+ (Together with)</t>
+  </si>
+  <si>
+    <t>Applicant Name 
+(Not Together with)</t>
+  </si>
+  <si>
+    <t>Guardian SSN 
+(Not Together with)</t>
+  </si>
+  <si>
+    <t>Gohil, Jemin</t>
+  </si>
+  <si>
+    <t>Manjunath, Karthik</t>
   </si>
 </sst>
 </file>
@@ -460,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -496,6 +525,9 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6457,6 +6489,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A16:A17"/>
@@ -6918,7 +7010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A20:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V9" sqref="L1:V9"/>
     </sheetView>
   </sheetViews>
